--- a/medicine/Psychotrope/Brasserie_La_Botteresse/Brasserie_La_Botteresse.xlsx
+++ b/medicine/Psychotrope/Brasserie_La_Botteresse/Brasserie_La_Botteresse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie La Botteresse appelée aussi Brasserie La Botteresse de Sur-les-Bois est une ancienne entreprise artisanale belge, active de 1996 à 2022, située dans le village de Sur-les-Bois faisant partie de la commune de Saint-Georges-sur-Meuse en province de Liège. Elle produisait une douzaine de bières spéciales parmi lesquelles la Botteresse.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une première brasserie a été fondée en 1996. Il s'agissait de la Brasserie des Bruyères où la première bière (une Botteresse ambrée) fut brassée. Dix ans plus tard, la brasserie déménage et s'implante près de l'église de Sur-les-Bois, un petit village de la commune de Saint-Georges-sur-Meuse non loin de l'aéroport de Liège. La brasserie change de nom en prenant celui de sa bière : la Botteresse qui signifie porteuse de hotte en wallon liégeois. Cette botteresse figure sur le dessin de l'étiquette réalisé par François Walthéry[1].
-En septembre 2022, l'entreprise déclarée en faillite stoppe son activité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première brasserie a été fondée en 1996. Il s'agissait de la Brasserie des Bruyères où la première bière (une Botteresse ambrée) fut brassée. Dix ans plus tard, la brasserie déménage et s'implante près de l'église de Sur-les-Bois, un petit village de la commune de Saint-Georges-sur-Meuse non loin de l'aéroport de Liège. La brasserie change de nom en prenant celui de sa bière : la Botteresse qui signifie porteuse de hotte en wallon liégeois. Cette botteresse figure sur le dessin de l'étiquette réalisé par François Walthéry.
+En septembre 2022, l'entreprise déclarée en faillite stoppe son activité.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Déclinées en quatre marques, la brasserie brasse treize bières artisanales et refermentées en bouteilles de 33 cl actuellement produites et commercialisées. 
 On remarque deux bières originales : une bière aux pommes et une bière au miel artisanal de la région constituée d'un mélange d'une douzaine d'épices et aromates.
